--- a/biology/Botanique/Rubus_calotemnus/Rubus_calotemnus.xlsx
+++ b/biology/Botanique/Rubus_calotemnus/Rubus_calotemnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus calotemnus est une espèce de plantes à fleurs du genre Rubus (les ronces) et de la famille des Rosacées. Le nom botanique vient du latin, calo, serviteur, et temno, méprisé.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les turions sont épais de 2 à 4 mm, arrondi à obtusément anguleux, légèrement poilu, à glandes stipitées absentes ou éparses, courtes, avec 4 à 25 aiguillons par entrenoeuds, aléniformes ou aplatis à base élargie, longs de 2 à 5 mm, droits, étalés ou inclinés.
 Les stipules sont linéaires-lancéolées à lancéolées.
@@ -546,7 +560,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce croît en forêts, lisières et haies, sur sol pauvre à assez riche en nutriments, frais à humide.
 </t>
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition est encore peu connue : l'espèce est signalée en France (Nord), en Belgique (Nord et Ouest) et aux Pays-Bas (au Nord jusqu'aux grands fleuves).
 </t>
@@ -608,7 +626,9 @@
           <t>Propagation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les espèces de la section Corylifolii, se multiplie par apomixie et par marcottage.
 </t>
@@ -639,7 +659,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir ronces.
 </t>
